--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="495" windowWidth="20175" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="495" windowWidth="20175" windowHeight="8775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="月结机票" sheetId="1" r:id="rId1"/>
@@ -877,13 +877,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot; - &quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot; - &quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -979,6 +979,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1055,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,19 +1105,6 @@
     <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,6 +1120,25 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,17 +1151,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1216,6 +1243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1250,6 +1278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1425,14 +1454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.5" customWidth="1" collapsed="1"/>
@@ -1456,131 +1485,131 @@
     <col min="27" max="27" width="8.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="35.1" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-    </row>
-    <row r="2" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+    </row>
+    <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+    </row>
+    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-    </row>
-    <row r="5" spans="1:27" ht="35.1" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+    </row>
+    <row r="5" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1593,10 +1622,10 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1663,7 +1692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17.25" customHeight="1">
+    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1676,8 +1705,8 @@
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1742,7 +1771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="17.25" customHeight="1">
+    <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -1755,10 +1784,10 @@
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G7" s="9">
@@ -1823,7 +1852,7 @@
       </c>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="17.25" customHeight="1">
+    <row r="8" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1836,10 +1865,10 @@
       <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G8" s="9">
@@ -1904,7 +1933,7 @@
       </c>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="17.25" customHeight="1">
+    <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1917,10 +1946,10 @@
       <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G9" s="9">
@@ -1985,7 +2014,7 @@
       </c>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="17.25" customHeight="1">
+    <row r="10" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1998,10 +2027,10 @@
       <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G10" s="9">
@@ -2066,7 +2095,7 @@
       </c>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="17.25" customHeight="1">
+    <row r="11" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -2079,10 +2108,10 @@
       <c r="D11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G11" s="9">
@@ -2147,7 +2176,7 @@
       </c>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="17.25" customHeight="1">
+    <row r="12" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2160,10 +2189,10 @@
       <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G12" s="9">
@@ -2228,7 +2257,7 @@
       </c>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="17.25" customHeight="1">
+    <row r="13" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
@@ -2241,10 +2270,10 @@
       <c r="D13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G13" s="9">
@@ -2309,7 +2338,7 @@
       </c>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="17.25" customHeight="1">
+    <row r="14" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -2322,19 +2351,19 @@
       <c r="D14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="17">
         <v>43052.729861111096</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="17">
         <v>43054.440972222197</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2390,13 +2419,13 @@
       </c>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="17.25" customHeight="1">
+    <row r="15" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2430,18 +2459,19 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
@@ -2465,130 +2495,130 @@
     <col min="25" max="25" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="35.1" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-    </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-    </row>
-    <row r="3" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+    </row>
+    <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-    </row>
-    <row r="4" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="5" spans="1:25" ht="35.1" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+    </row>
+    <row r="5" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2658,12 +2688,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="17.25" customHeight="1">
+    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>113</v>
       </c>
@@ -2731,14 +2761,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="17.25" customHeight="1">
+    <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="9">
@@ -2796,14 +2826,14 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="17.25" customHeight="1">
+    <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>272</v>
       </c>
       <c r="D8" s="9">
@@ -2861,14 +2891,14 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="17.25" customHeight="1">
+    <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>281</v>
       </c>
       <c r="D9" s="9">
@@ -2926,14 +2956,14 @@
       </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="17.25" customHeight="1">
+    <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D10" s="9">
@@ -2991,14 +3021,14 @@
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1">
+    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D11" s="9">
@@ -3056,14 +3086,14 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="17.25" customHeight="1">
+    <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D12" s="9">
@@ -3121,14 +3151,14 @@
       </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="17.25" customHeight="1">
+    <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D13" s="9">
@@ -3188,10 +3218,10 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="17.25" customHeight="1">
+    <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -3234,14 +3264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.5" customWidth="1" collapsed="1"/>
@@ -3261,95 +3291,95 @@
     <col min="18" max="18" width="8.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.1" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="35.1" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3362,10 +3392,10 @@
       <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3405,7 +3435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>174</v>
       </c>
@@ -3418,8 +3448,8 @@
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3457,7 +3487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>184</v>
       </c>
@@ -3470,10 +3500,10 @@
       <c r="D7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G7" s="10">
@@ -3511,7 +3541,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>184</v>
       </c>
@@ -3524,10 +3554,10 @@
       <c r="D8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>273</v>
       </c>
       <c r="G8" s="10">
@@ -3565,7 +3595,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>184</v>
       </c>
@@ -3581,7 +3611,7 @@
       <c r="E9" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G9" s="11">
@@ -3619,7 +3649,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>184</v>
       </c>
@@ -3632,10 +3662,10 @@
       <c r="D10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G10" s="10">
@@ -3673,7 +3703,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>184</v>
       </c>
@@ -3686,10 +3716,10 @@
       <c r="D11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G11" s="10">
@@ -3727,7 +3757,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>194</v>
       </c>
@@ -3740,10 +3770,10 @@
       <c r="D12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>275</v>
       </c>
       <c r="G12" s="10">
@@ -3781,7 +3811,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>194</v>
       </c>
@@ -3794,10 +3824,10 @@
       <c r="D13" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>275</v>
       </c>
       <c r="G13" s="10">
@@ -3835,7 +3865,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>194</v>
       </c>
@@ -3848,10 +3878,10 @@
       <c r="D14" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G14" s="10">
@@ -3889,7 +3919,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>198</v>
       </c>
@@ -3902,10 +3932,10 @@
       <c r="D15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>274</v>
       </c>
       <c r="G15" s="10">
@@ -3943,7 +3973,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>200</v>
       </c>
@@ -3956,10 +3986,10 @@
       <c r="D16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>275</v>
       </c>
       <c r="G16" s="10">
@@ -3997,7 +4027,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="17.25" customHeight="1">
+    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>200</v>
       </c>
@@ -4010,10 +4040,10 @@
       <c r="D17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G17" s="10">
@@ -4051,7 +4081,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="17.25" customHeight="1">
+    <row r="18" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>200</v>
       </c>
@@ -4064,10 +4094,10 @@
       <c r="D18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>275</v>
       </c>
       <c r="G18" s="10">
@@ -4105,7 +4135,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="17.25" customHeight="1">
+    <row r="19" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>200</v>
       </c>
@@ -4118,10 +4148,10 @@
       <c r="D19" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G19" s="10">
@@ -4159,7 +4189,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="17.25" customHeight="1">
+    <row r="20" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>202</v>
       </c>
@@ -4172,10 +4202,10 @@
       <c r="D20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>273</v>
       </c>
       <c r="G20" s="10">
@@ -4213,7 +4243,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="17.25" customHeight="1">
+    <row r="21" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>202</v>
       </c>
@@ -4226,10 +4256,10 @@
       <c r="D21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G21" s="10">
@@ -4267,7 +4297,7 @@
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="17.25" customHeight="1">
+    <row r="22" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>202</v>
       </c>
@@ -4280,10 +4310,10 @@
       <c r="D22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G22" s="10">
@@ -4321,7 +4351,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="17.25" customHeight="1">
+    <row r="23" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>203</v>
       </c>
@@ -4375,7 +4405,7 @@
       </c>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="17.25" customHeight="1">
+    <row r="24" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>207</v>
       </c>
@@ -4388,10 +4418,10 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G24" s="10">
@@ -4429,7 +4459,7 @@
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="17.25" customHeight="1">
+    <row r="25" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>212</v>
       </c>
@@ -4442,10 +4472,10 @@
       <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G25" s="10">
@@ -4483,7 +4513,7 @@
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="17.25" customHeight="1">
+    <row r="26" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>213</v>
       </c>
@@ -4496,10 +4526,10 @@
       <c r="D26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G26" s="10">
@@ -4537,7 +4567,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="17.25" customHeight="1">
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
@@ -4550,10 +4580,10 @@
       <c r="D27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G27" s="10">
@@ -4591,7 +4621,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="17.25" customHeight="1">
+    <row r="28" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>217</v>
       </c>
@@ -4604,10 +4634,10 @@
       <c r="D28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="15" t="s">
         <v>281</v>
       </c>
       <c r="G28" s="10">
@@ -4645,7 +4675,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="17.25" customHeight="1">
+    <row r="29" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
@@ -4658,10 +4688,10 @@
       <c r="D29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="15" t="s">
         <v>281</v>
       </c>
       <c r="G29" s="10">
@@ -4699,7 +4729,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="17.25" customHeight="1">
+    <row r="30" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>222</v>
       </c>
@@ -4712,10 +4742,10 @@
       <c r="D30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G30" s="10">
@@ -4753,7 +4783,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="17.25" customHeight="1">
+    <row r="31" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>225</v>
       </c>
@@ -4766,10 +4796,10 @@
       <c r="D31" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G31" s="10">
@@ -4807,7 +4837,7 @@
       </c>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="17.25" customHeight="1">
+    <row r="32" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>231</v>
       </c>
@@ -4820,10 +4850,10 @@
       <c r="D32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G32" s="10">
@@ -4861,7 +4891,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="17.25" customHeight="1">
+    <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>234</v>
       </c>
@@ -4874,10 +4904,10 @@
       <c r="D33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G33" s="10">
@@ -4915,7 +4945,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="17.25" customHeight="1">
+    <row r="34" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>238</v>
       </c>
@@ -4928,10 +4958,10 @@
       <c r="D34" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G34" s="10">
@@ -4969,7 +4999,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="17.25" customHeight="1">
+    <row r="35" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>242</v>
       </c>
@@ -4982,10 +5012,10 @@
       <c r="D35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G35" s="10">
@@ -5023,7 +5053,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="17.25" customHeight="1">
+    <row r="36" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>245</v>
       </c>
@@ -5036,10 +5066,10 @@
       <c r="D36" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G36" s="10">
@@ -5077,7 +5107,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="17.25" customHeight="1">
+    <row r="37" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>248</v>
       </c>
@@ -5090,10 +5120,10 @@
       <c r="D37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G37" s="10">
@@ -5131,7 +5161,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="17.25" customHeight="1">
+    <row r="38" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>250</v>
       </c>
@@ -5144,10 +5174,10 @@
       <c r="D38" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G38" s="10">
@@ -5185,7 +5215,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="17.25" customHeight="1">
+    <row r="39" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>256</v>
       </c>
@@ -5198,10 +5228,10 @@
       <c r="D39" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G39" s="10">
@@ -5239,7 +5269,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="17.25" customHeight="1">
+    <row r="40" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>259</v>
       </c>
@@ -5252,10 +5282,10 @@
       <c r="D40" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G40" s="10">
@@ -5293,7 +5323,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="17.25" customHeight="1">
+    <row r="41" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>261</v>
       </c>
@@ -5306,10 +5336,10 @@
       <c r="D41" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G41" s="10">
@@ -5347,7 +5377,7 @@
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="17.25" customHeight="1">
+    <row r="42" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>261</v>
       </c>
@@ -5360,10 +5390,10 @@
       <c r="D42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="15" t="s">
         <v>281</v>
       </c>
       <c r="G42" s="10">
@@ -5401,7 +5431,7 @@
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" ht="17.25" customHeight="1">
+    <row r="43" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>261</v>
       </c>
@@ -5414,10 +5444,10 @@
       <c r="D43" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G43" s="10">
@@ -5455,7 +5485,7 @@
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" ht="17.25" customHeight="1">
+    <row r="44" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>265</v>
       </c>
@@ -5468,10 +5498,10 @@
       <c r="D44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G44" s="10">
@@ -5509,7 +5539,7 @@
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" ht="17.25" customHeight="1">
+    <row r="45" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>266</v>
       </c>
@@ -5522,10 +5552,10 @@
       <c r="D45" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G45" s="10">
@@ -5563,7 +5593,7 @@
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="17.25" customHeight="1">
+    <row r="46" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>267</v>
       </c>
@@ -5576,10 +5606,10 @@
       <c r="D46" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G46" s="10">
@@ -5617,13 +5647,13 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" ht="17.25" customHeight="1">
+    <row r="47" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -5634,7 +5664,7 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="8">
+      <c r="Q47" s="28">
         <v>9672.5</v>
       </c>
       <c r="R47" s="8"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="283">
   <si>
     <t>月结机票消费明细报表</t>
   </si>
@@ -871,6 +871,20 @@
   </si>
   <si>
     <t>经理</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>XXXXX</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1007,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,8 +1024,20 @@
         <fgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1062,13 +1088,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,14 +1167,32 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,8 +1207,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,8 +1228,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,128 +1569,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
     </row>
     <row r="5" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -2357,13 +2440,13 @@
       <c r="F14" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>43052.729861111096</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>43054.440972222197</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2468,7 +2551,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2496,120 +2579,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
     </row>
     <row r="5" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3267,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3288,96 +3371,96 @@
     <col min="14" max="14" width="13.25" customWidth="1" collapsed="1"/>
     <col min="15" max="16" width="9.5" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3595,59 +3678,59 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:18" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="22">
         <v>43044</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="23">
         <v>177</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="23">
         <v>15</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
         <v>35.5</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="23">
         <v>50.5</v>
       </c>
-      <c r="R9" s="4"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -3662,16 +3745,16 @@
       <c r="D10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="38">
         <v>43044</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="39" t="s">
         <v>187</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3716,16 +3799,16 @@
       <c r="D11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="38">
         <v>43044</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="39" t="s">
         <v>187</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3770,16 +3853,16 @@
       <c r="D12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="38">
         <v>43044</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="39" t="s">
         <v>187</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -5647,7 +5730,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5664,10 +5747,12 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="28">
+      <c r="Q47" s="18">
         <v>9672.5</v>
       </c>
-      <c r="R47" s="8"/>
+      <c r="R47" s="19" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="495" windowWidth="20175" windowHeight="8775" activeTab="2"/>
+    <workbookView xWindow="210" yWindow="495" windowWidth="20175" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="月结机票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="289">
   <si>
     <t>月结机票消费明细报表</t>
   </si>
@@ -887,6 +887,44 @@
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>#{dataField:"username"}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{dataField:'fullname'}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{dataList:'users'}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户名：</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码：</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -897,7 +935,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot; - &quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1004,6 +1042,11 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1118,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,6 +1237,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,15 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1569,128 +1615,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
     </row>
     <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
     </row>
     <row r="5" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -2532,6 +2578,32 @@
         <v>5770</v>
       </c>
       <c r="AA15" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2579,120 +2651,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
     </row>
     <row r="5" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3350,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3375,92 +3447,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3745,16 +3817,16 @@
       <c r="D10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="26">
         <v>43044</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="27" t="s">
         <v>187</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3799,16 +3871,16 @@
       <c r="D11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="26">
         <v>43044</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="27" t="s">
         <v>187</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3853,16 +3925,16 @@
       <c r="D12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="26">
         <v>43044</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="27" t="s">
         <v>187</v>
       </c>
       <c r="I12" s="3" t="s">
